--- a/FW_Guide_List.xlsx
+++ b/FW_Guide_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyProjects\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProjects\FwTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5560EEF3-9551-4988-BBD0-CAA6CEE68CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7E2F1C-A2AF-4E11-83AD-8247FF5546EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="945" windowWidth="28800" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分位List整合" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="213">
   <si>
     <t>GNDH180159-1</t>
   </si>
@@ -479,17 +479,6 @@
     <t>NT2500-1F&amp;2F&amp;10F的2M副机产线使用分位(BCD0001-26-180)-20161220.rar</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>H130632-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -787,10 +776,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WJ1417主摄像头分位(BCD1002-180)-20200828.rar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -810,10 +795,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WJ1215-1X-31主摄像头分位(BCD1001-180)-2020902.rar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1212,6 +1193,9 @@
   <si>
     <t>WJ1203-1X20001</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -1622,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1719,37 +1703,37 @@
         <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L3" s="3">
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1766,7 +1750,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>53</v>
@@ -1775,16 +1759,16 @@
         <v>54</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="L4" s="3">
         <v>1</v>
@@ -1793,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1807,37 +1791,37 @@
         <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="L5" s="3">
         <v>1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1854,7 +1838,7 @@
         <v>52</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>53</v>
@@ -1863,16 +1847,16 @@
         <v>54</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="L6" s="3">
         <v>1</v>
@@ -1881,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1895,28 +1879,28 @@
         <v>59</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="L7" s="3">
         <v>1</v>
@@ -1925,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,43 +1917,43 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1986,7 +1970,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>67</v>
@@ -2004,16 +1988,16 @@
         <v>71</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2030,7 +2014,7 @@
         <v>52</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>72</v>
@@ -2039,7 +2023,7 @@
         <v>73</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>74</v>
@@ -2048,7 +2032,7 @@
         <v>75</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
@@ -2057,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2065,43 +2049,43 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2115,37 +2099,37 @@
         <v>76</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>78</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2159,28 +2143,28 @@
         <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L13" s="3">
         <v>1</v>
@@ -2189,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2206,7 +2190,7 @@
         <v>79</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>77</v>
@@ -2215,7 +2199,7 @@
         <v>80</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>81</v>
@@ -2224,7 +2208,7 @@
         <v>82</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L14" s="3">
         <v>1</v>
@@ -2233,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2247,37 +2231,37 @@
         <v>83</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>84</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2291,37 +2275,37 @@
         <v>85</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>86</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2335,37 +2319,37 @@
         <v>88</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>87</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L17" s="3">
         <v>1</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2382,7 +2366,7 @@
         <v>79</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>77</v>
@@ -2391,7 +2375,7 @@
         <v>91</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>92</v>
@@ -2400,7 +2384,7 @@
         <v>93</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2409,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,37 +2407,37 @@
         <v>49</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2464,31 +2448,31 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>93</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L20" s="3">
         <v>1</v>
@@ -2497,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2508,31 +2492,31 @@
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="K21" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L21" s="3">
         <v>1</v>
@@ -2541,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,13 +2536,13 @@
         <v>13</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>53</v>
@@ -2567,16 +2551,16 @@
         <v>54</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
@@ -2585,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2596,13 +2580,13 @@
         <v>13</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>53</v>
@@ -2611,16 +2595,16 @@
         <v>54</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L23" s="3">
         <v>1</v>
@@ -2629,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2640,31 +2624,31 @@
         <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
@@ -2673,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2684,40 +2668,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L25" s="3">
         <v>1</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2728,31 +2712,31 @@
         <v>15</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="I26" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>71</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L26" s="3">
         <v>1</v>
@@ -2772,31 +2756,31 @@
         <v>15</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>71</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L27" s="9">
         <v>1</v>
@@ -2816,31 +2800,31 @@
         <v>15</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>71</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L28" s="9">
         <v>1</v>
@@ -2860,31 +2844,31 @@
         <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="J29" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L29" s="3">
         <v>1</v>
@@ -2893,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2904,40 +2888,40 @@
         <v>17</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L30" s="3">
         <v>1</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2948,31 +2932,31 @@
         <v>18</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="K31" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L31" s="3">
         <v>1</v>
@@ -2981,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2992,40 +2976,40 @@
         <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L32" s="3">
         <v>1</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3036,31 +3020,31 @@
         <v>12</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="K33" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L33" s="3">
         <v>1</v>
@@ -3069,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3080,40 +3064,40 @@
         <v>14</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L34" s="3">
         <v>1</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3124,40 +3108,40 @@
         <v>2</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L35" s="3">
         <v>1</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3168,40 +3152,40 @@
         <v>20</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L36" s="3">
         <v>1</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,31 +3196,31 @@
         <v>16</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L37" s="3">
         <v>1</v>
@@ -3245,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3256,31 +3240,31 @@
         <v>21</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="L38" s="3">
         <v>1</v>
@@ -3289,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3300,40 +3284,40 @@
         <v>22</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L39" s="3">
         <v>1</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3344,31 +3328,31 @@
         <v>23</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H40" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="J40" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L40" s="3">
         <v>1</v>
@@ -3377,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3388,31 +3372,31 @@
         <v>24</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L41" s="3">
         <v>1</v>
@@ -3421,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3432,31 +3416,31 @@
         <v>25</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L42" s="3">
         <v>1</v>
@@ -3476,13 +3460,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>77</v>
@@ -3491,16 +3475,16 @@
         <v>91</v>
       </c>
       <c r="H43" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="J43" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L43" s="3">
         <v>1</v>
@@ -3509,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3520,31 +3504,31 @@
         <v>24</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L44" s="3">
         <v>1</v>
@@ -3553,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3564,31 +3548,31 @@
         <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L45" s="10">
         <v>1</v>
@@ -3597,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3608,40 +3592,40 @@
         <v>17</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L46" s="3">
         <v>1</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3649,34 +3633,34 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L47" s="3">
         <v>1</v>
@@ -3685,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3696,40 +3680,40 @@
         <v>2</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L48" s="3">
         <v>1</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3740,40 +3724,40 @@
         <v>17</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L49" s="3">
         <v>1</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,40 +3768,40 @@
         <v>22</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L50" s="3">
         <v>1</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3828,31 +3812,31 @@
         <v>16</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L51" s="3">
         <v>1</v>
@@ -3861,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3872,31 +3856,31 @@
         <v>26</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L52" s="3">
         <v>1</v>
@@ -3905,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3916,31 +3900,31 @@
         <v>27</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L53" s="3">
         <v>1</v>
@@ -3949,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3960,31 +3944,31 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>82</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L54" s="3">
         <v>1</v>
@@ -3993,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,40 +3988,40 @@
         <v>28</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L55" s="3">
         <v>1</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4048,40 +4032,40 @@
         <v>14</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L56" s="3">
         <v>1</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4092,40 +4076,40 @@
         <v>29</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4136,31 +4120,31 @@
         <v>24</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L58" s="3">
         <v>1</v>
@@ -4169,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4180,31 +4164,31 @@
         <v>16</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L59" s="3">
         <v>1</v>
@@ -4213,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4224,31 +4208,31 @@
         <v>24</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L60" s="3">
         <v>1</v>
@@ -4257,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4268,31 +4252,31 @@
         <v>25</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="E61" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L61" s="3">
         <v>1</v>
@@ -4312,31 +4296,31 @@
         <v>8</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>82</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L62" s="3">
         <v>1</v>
@@ -4345,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4356,31 +4340,31 @@
         <v>30</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>92</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L63" s="3">
         <v>1</v>
@@ -4389,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4400,31 +4384,31 @@
         <v>30</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>77</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>92</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L64" s="10">
         <v>1</v>
@@ -4433,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4444,40 +4428,40 @@
         <v>2</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L65" s="3">
         <v>1</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4488,31 +4472,31 @@
         <v>31</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>92</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L66" s="3">
         <v>1</v>
@@ -4521,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4532,13 +4516,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>77</v>
@@ -4547,16 +4531,16 @@
         <v>80</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>82</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L67" s="3">
         <v>1</v>
@@ -4565,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,31 +4560,31 @@
         <v>32</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L68" s="3">
         <v>1</v>
@@ -4609,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4620,31 +4604,31 @@
         <v>32</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L69" s="10">
         <v>1</v>
@@ -4653,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4664,31 +4648,31 @@
         <v>33</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="J70" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L70" s="3">
         <v>1</v>
@@ -4697,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4708,31 +4692,31 @@
         <v>27</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L71" s="3">
         <v>1</v>
@@ -4741,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4752,40 +4736,40 @@
         <v>33</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="H72" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L72" s="3">
         <v>1</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4796,40 +4780,40 @@
         <v>20</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L73" s="3">
         <v>1</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4840,40 +4824,40 @@
         <v>34</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4884,31 +4868,31 @@
         <v>36</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L75" s="3">
         <v>1</v>
@@ -4917,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="9:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5046,217 +5030,217 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
@@ -5271,7 +5255,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -5281,47 +5265,47 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
